--- a/ServerNode/MatrizRastreabilidade.xlsx
+++ b/ServerNode/MatrizRastreabilidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F735C08-EC53-4E4B-8049-4153CDC70297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BFBDAB-1E49-431A-8DB3-B8DEBD2E1B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="13896" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>Descrição</t>
   </si>
@@ -295,13 +292,127 @@
   </si>
   <si>
     <t>TestBlackBoxCreateOrderInvalidParameter</t>
+  </si>
+  <si>
+    <t>TESTES WHITEBOX:</t>
+  </si>
+  <si>
+    <t>authMiddleware</t>
+  </si>
+  <si>
+    <t>routeValidationsMiddleware</t>
+  </si>
+  <si>
+    <t>shortcircuits immediately for unauthenticated route</t>
+  </si>
+  <si>
+    <t>throws 401 if request requires authentication and no token is provided</t>
+  </si>
+  <si>
+    <t>throws 401 if token is valid but user does not exist</t>
+  </si>
+  <si>
+    <t>successfully authenticates user</t>
+  </si>
+  <si>
+    <t>throws 406 if accept header doesn't allow json</t>
+  </si>
+  <si>
+    <t>request não autenticado {method: "POST", path: "/login"}</t>
+  </si>
+  <si>
+    <t>request sem o token {headers: {}, method: "GET", path: "/user" }</t>
+  </si>
+  <si>
+    <t>request com o token valido { headers: { authorization: userToken }, method: "GET", path: "/user" }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header accept com um valor não suportado {headers: { accept: "text/xml" }, method: "POST", path: "/api/login"}  </t>
+  </si>
+  <si>
+    <t>número de chamada da função - 1 e tamanho do argumento - 0</t>
+  </si>
+  <si>
+    <t>request com o token inválido {headers: { authorization: nonExistentToken }, method: "GET", path: "/user"}</t>
+  </si>
+  <si>
+    <t>número de chamada da função - 1 e messagem argumento "{ status: 401, message: "Invalid or expired token" }"</t>
+  </si>
+  <si>
+    <t>número de chamada da função - 1 e messagem argumento "{ status: 401, message: "Unknown user" }"</t>
+  </si>
+  <si>
+    <t>número de chamada da função - 1 e messagem argumento "{ status: 406, message: "Not acceptable" }"</t>
+  </si>
+  <si>
+    <t>Validações Genéricas</t>
+  </si>
+  <si>
+    <t>TestBlackBoxLoginMethod</t>
+  </si>
+  <si>
+    <t>TestBlackBoxLoginSmallPassword</t>
+  </si>
+  <si>
+    <t>TestBlackBoxLoginSmallUsername</t>
+  </si>
+  <si>
+    <t>TestBlackBoxLoginToBigPassword</t>
+  </si>
+  <si>
+    <t>TestBlackBoxLoginToBigUsername</t>
+  </si>
+  <si>
+    <t>TestBlackBoxUnexistentRoute</t>
+  </si>
+  <si>
+    <t>TestBlackBoxHeaderAcceptAny</t>
+  </si>
+  <si>
+    <t>TestBlackBoxHeaderAcceptJSON</t>
+  </si>
+  <si>
+    <t>TestBlackBoxUnsupportedAcceptHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405 Method Not Allowed error : Method not allowed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	username: rodrigo,
+	password: a
+</t>
+  </si>
+  <si>
+    <t>400 Bad Request message : "Invalid body"</t>
+  </si>
+  <si>
+    <t>username: r,
+	password: asadsadsada</t>
+  </si>
+  <si>
+    <t>username: rodrigo,
+	password: aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>username: aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa,
+	password": aaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>404 Not Found</t>
+  </si>
+  <si>
+    <t>200 OK</t>
+  </si>
+  <si>
+    <t>406 Not Acceptable message : "Not acceptable"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,6 +447,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -487,42 +604,15 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,6 +621,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,40 +941,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.59765625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.19921875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.19921875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="13"/>
@@ -853,384 +983,584 @@
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+    <row r="17" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+    <row r="22" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>5</v>
-      </c>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="1" t="s">
+    <row r="28" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="31" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="42" spans="1:5" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="84" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B31:B39"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="A3:A8"/>
@@ -1244,8 +1574,21 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B30">
-    <cfRule type="colorScale" priority="1">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B40">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B47">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
